--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.12_Student_Right_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.12_Student_Right_Q_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424F200-37FD-4C96-BD6C-02C08997E674}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79100AC2-7A84-4C77-8CFC-866D18BB0EAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="465" windowWidth="19035" windowHeight="9720" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -311,9 +311,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -323,12 +320,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -338,20 +329,53 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +702,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,38 +711,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="20" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -733,11 +757,11 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,78 +770,78 @@
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,37 +865,37 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -886,51 +910,51 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="17"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,38 +978,38 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="str">
+      <c r="A29" s="20" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1000,7 +1024,7 @@
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3"/>
@@ -1011,105 +1035,105 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="27"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,6 +1146,7 @@
       <c r="G43" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
